--- a/file/paperArchive.xlsx
+++ b/file/paperArchive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Paper title</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>0-1 knapsack</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>Green-aware workload scheduling in geographically distributed data centers</t>
+  </si>
+  <si>
+    <t>optimal</t>
   </si>
 </sst>
 </file>
@@ -433,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
     <col min="2" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
@@ -449,11 +458,11 @@
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="11" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,10 +497,16 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,15 +541,30 @@
         <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/file/paperArchive.xlsx
+++ b/file/paperArchive.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang_000\Documents\GitHub\GreenDC-Summary\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="11475" windowHeight="7740"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Paper title</t>
   </si>
@@ -79,6 +84,9 @@
   </si>
   <si>
     <t>optimal</t>
+  </si>
+  <si>
+    <t>min brown usage</t>
   </si>
 </sst>
 </file>
@@ -142,8 +150,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,12 +159,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -198,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +456,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,9 +561,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>12</v>
